--- a/MeterTest/doc/demo_读写表.xlsx
+++ b/MeterTest/doc/demo_读写表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01_chint\01_project\04_Ⅱ型终端\05_Tools\03_测试软件\MeterTest_V1.0\MeterTest\MeterTest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CEE413-4FA9-4033-9ED3-B164424C8243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C2F531-791A-4D51-A375-A70DBC501F64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="修改记录" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据标识!$A$1:$H$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据标识!$A$1:$H$112</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="279">
   <si>
     <t>数据标识</t>
   </si>
@@ -337,9 +337,6 @@
     <t>XXXX</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>XXXXXX</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -798,187 +795,6 @@
   </si>
   <si>
     <t>主动上报状态字</t>
-  </si>
-  <si>
-    <t>04090201</t>
-  </si>
-  <si>
-    <t>欠压事件电压触发上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NNN.N</t>
-  </si>
-  <si>
-    <t>04090202</t>
-  </si>
-  <si>
-    <t>欠压事件判定延时时间</t>
-  </si>
-  <si>
-    <t>秒</t>
-  </si>
-  <si>
-    <t>04090301</t>
-  </si>
-  <si>
-    <t>过压事件电压触发下限</t>
-  </si>
-  <si>
-    <t>04090302</t>
-  </si>
-  <si>
-    <t>过压事件判定延时时间</t>
-  </si>
-  <si>
-    <t>04090401</t>
-  </si>
-  <si>
-    <t>断相事件电压触发上限</t>
-  </si>
-  <si>
-    <t>04090402</t>
-  </si>
-  <si>
-    <t>断相事件电流触发上限</t>
-  </si>
-  <si>
-    <t>NN.NNNN</t>
-  </si>
-  <si>
-    <t>04090403</t>
-  </si>
-  <si>
-    <t>断相事件判定延时时间</t>
-  </si>
-  <si>
-    <t>04090501</t>
-  </si>
-  <si>
-    <t>电压不平衡率限值</t>
-  </si>
-  <si>
-    <t>NN.NN</t>
-  </si>
-  <si>
-    <t>04090502</t>
-  </si>
-  <si>
-    <t>电压不平衡率判定延时时间</t>
-  </si>
-  <si>
-    <t>04090601</t>
-  </si>
-  <si>
-    <t>电流不平衡率限值</t>
-  </si>
-  <si>
-    <t>04090602</t>
-  </si>
-  <si>
-    <t>电流不平衡率判定延时时间</t>
-  </si>
-  <si>
-    <t>04090801</t>
-  </si>
-  <si>
-    <t>过流事件电流触发下限</t>
-  </si>
-  <si>
-    <t>04090802</t>
-  </si>
-  <si>
-    <t>过流事件判定延时时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>04090A01</t>
-  </si>
-  <si>
-    <t>潮流反向事件有功功率触发下限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>04090A02</t>
-  </si>
-  <si>
-    <t>潮流反向事件判定延时时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>04090B01</t>
-  </si>
-  <si>
-    <t>过载事件有功功率触发下限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>04090B02</t>
-  </si>
-  <si>
-    <t>过载事件判定延时时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>04090C01</t>
-  </si>
-  <si>
-    <t>电压考核上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>04090C02</t>
-  </si>
-  <si>
-    <t>电压考核下限</t>
-  </si>
-  <si>
-    <t>04090D01</t>
-  </si>
-  <si>
-    <t>有功需量超限事件需量触发下限</t>
-  </si>
-  <si>
-    <t>04090D02</t>
-  </si>
-  <si>
-    <t>无功需量超限事件需量触发下限</t>
-  </si>
-  <si>
-    <t>kVar</t>
-  </si>
-  <si>
-    <t>04090D03</t>
-  </si>
-  <si>
-    <t>需量超限事件判定延时时间</t>
-  </si>
-  <si>
-    <t>04090E01</t>
-  </si>
-  <si>
-    <t>总功率因数超下限阀值</t>
-  </si>
-  <si>
-    <t>N.NNN</t>
-  </si>
-  <si>
-    <t>04090E02</t>
-  </si>
-  <si>
-    <t>总功率因数超下限判定延时时间</t>
-  </si>
-  <si>
-    <t>04090F01</t>
-  </si>
-  <si>
-    <t>电流严重不平衡限值</t>
-  </si>
-  <si>
-    <t>04090F02</t>
-  </si>
-  <si>
-    <t>电流严重不平衡触发延时时间</t>
   </si>
   <si>
     <t>04800001</t>
@@ -1097,38 +913,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>方兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.修订资产管理编码等数据项的格式，改为ASC；
-2.删除上1次整点冻结的数据标识；
-3.删除(当前月)正反向有功总最大需量及发生时间数据标识；
-4.添加升级相关的数据标识
-5.添加烟感遥信相关数据标识
-6.添加MCU-Boot软件版本号数据标识
-7.添加自定义日期时间数据标识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.添加基波电压和基波电流数据标识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>方兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1214,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1271,9 +1057,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1589,11 +1372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139:XFD266"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110:XFD135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1614,28 +1397,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1656,13 +1439,13 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1683,13 +1466,13 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1710,13 +1493,13 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1733,13 +1516,13 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1760,13 +1543,13 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1787,13 +1570,13 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1814,13 +1597,13 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1837,13 +1620,13 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1864,13 +1647,13 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1891,13 +1674,13 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1918,13 +1701,13 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1945,13 +1728,13 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1968,13 +1751,13 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1995,13 +1778,13 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -2022,13 +1805,13 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -2049,13 +1832,13 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -2076,13 +1859,13 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -2099,13 +1882,13 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2126,13 +1909,13 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -2153,13 +1936,13 @@
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -2180,13 +1963,13 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -2207,13 +1990,13 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -2230,13 +2013,13 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2255,13 +2038,13 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -2280,13 +2063,13 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2305,13 +2088,13 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2330,13 +2113,13 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2353,13 +2136,13 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2380,13 +2163,13 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2407,13 +2190,13 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2434,13 +2217,13 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2457,13 +2240,13 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2484,13 +2267,13 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2511,13 +2294,13 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2538,13 +2321,13 @@
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2565,13 +2348,13 @@
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2592,13 +2375,13 @@
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2619,13 +2402,13 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2646,13 +2429,13 @@
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2673,13 +2456,13 @@
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2700,21 +2483,21 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
@@ -2723,82 +2506,82 @@
         <v>3</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="2">
         <v>4</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="2">
         <v>4</v>
@@ -2808,24 +2591,24 @@
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="2">
         <v>4</v>
@@ -2835,24 +2618,24 @@
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="2">
         <v>4</v>
@@ -2862,24 +2645,24 @@
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2">
         <v>4</v>
@@ -2889,78 +2672,78 @@
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="2">
         <v>4</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="D51" s="2">
         <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" s="2">
         <v>4</v>
@@ -2970,24 +2753,24 @@
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="2">
         <v>4</v>
@@ -2997,24 +2780,24 @@
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" s="2">
         <v>4</v>
@@ -3024,24 +2807,24 @@
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" s="2">
         <v>4</v>
@@ -3051,78 +2834,78 @@
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" s="2">
         <v>4</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" s="2">
         <v>4</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="2">
         <v>4</v>
@@ -3132,24 +2915,24 @@
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59" s="2">
         <v>4</v>
@@ -3159,24 +2942,24 @@
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" s="2">
         <v>4</v>
@@ -3186,24 +2969,24 @@
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" s="2">
         <v>4</v>
@@ -3213,452 +2996,452 @@
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" s="2">
         <v>4</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D63" s="7">
         <v>4</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D64" s="2">
         <v>4</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="C65" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" s="7">
         <v>4</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="2">
         <v>4</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D67" s="2">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D68" s="2">
         <v>4</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D69" s="2">
         <v>4</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D70" s="2">
         <v>4</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D71" s="2">
         <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" s="2">
         <v>4</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="2">
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="D74" s="9">
         <v>4</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="D75" s="9">
         <v>3</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="D76" s="9">
         <v>1</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="C77" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D77" s="9">
         <v>1</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="D78" s="9">
         <v>6</v>
@@ -3666,24 +3449,24 @@
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="C79" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D79" s="9">
         <v>6</v>
@@ -3691,24 +3474,24 @@
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="C80" s="5" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="D80" s="9">
         <v>32</v>
@@ -3716,24 +3499,24 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="C81" s="5" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="D81" s="9">
         <v>6</v>
@@ -3741,24 +3524,24 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="C82" s="5" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="D82" s="9">
         <v>6</v>
@@ -3766,24 +3549,24 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="C83" s="5" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="D83" s="9">
         <v>6</v>
@@ -3791,24 +3574,24 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="C84" s="5" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="D84" s="9">
         <v>4</v>
@@ -3816,24 +3599,24 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="C85" s="5" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="D85" s="9">
         <v>4</v>
@@ -3841,78 +3624,78 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="D86" s="9">
         <v>3</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="C87" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D87" s="9">
         <v>3</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="D88" s="9">
         <v>10</v>
@@ -3920,90 +3703,90 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="C89" s="5" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="D89" s="9">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="C90" s="5" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="D90" s="9">
         <v>16</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="C91" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D91" s="9">
         <v>6</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>100</v>
@@ -4014,21 +3797,21 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>100</v>
@@ -4039,21 +3822,21 @@
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>100</v>
@@ -4064,21 +3847,21 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>100</v>
@@ -4089,21 +3872,21 @@
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>100</v>
@@ -4114,21 +3897,21 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>100</v>
@@ -4139,21 +3922,21 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>100</v>
@@ -4164,21 +3947,21 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="D99" s="12">
         <v>14</v>
@@ -4186,24 +3969,24 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="C100" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D100" s="9">
         <v>1</v>
@@ -4211,24 +3994,24 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D101" s="9">
         <v>1</v>
@@ -4236,24 +4019,24 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="C102" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D102" s="9">
         <v>1</v>
@@ -4261,24 +4044,24 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="C103" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D103" s="9">
         <v>1</v>
@@ -4286,24 +4069,24 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="C104" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D104" s="9">
         <v>1</v>
@@ -4311,24 +4094,24 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="C105" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D105" s="9">
         <v>1</v>
@@ -4336,51 +4119,51 @@
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>243</v>
-      </c>
       <c r="C106" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D106" s="12">
         <v>5</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>245</v>
-      </c>
       <c r="C107" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D107" s="12">
         <v>1</v>
@@ -4389,841 +4172,141 @@
         <v>99</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="C108" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D108" s="12">
         <v>6</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>249</v>
-      </c>
       <c r="C109" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D109" s="12">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="C110" s="5" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="D110" s="9">
-        <v>2</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="D111" s="9">
-        <v>1</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>255</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E111" s="10"/>
       <c r="F111" s="10"/>
       <c r="G111" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I111" s="12" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="D112" s="9">
-        <v>2</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D113" s="9">
-        <v>1</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F113" s="10"/>
-      <c r="G113" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I113" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D114" s="9">
-        <v>2</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I114" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D115" s="9">
-        <v>3</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" s="10"/>
-      <c r="G115" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D116" s="9">
-        <v>1</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F116" s="10"/>
-      <c r="G116" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I116" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D117" s="9">
-        <v>2</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F117" s="10"/>
-      <c r="G117" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I117" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D118" s="9">
-        <v>1</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F118" s="10"/>
-      <c r="G118" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I118" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D119" s="9">
-        <v>2</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F119" s="10"/>
-      <c r="G119" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D120" s="9">
-        <v>1</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F120" s="10"/>
-      <c r="G120" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I120" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D121" s="9">
-        <v>2</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I121" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D122" s="9">
-        <v>1</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I122" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D123" s="9">
-        <v>3</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D124" s="9">
-        <v>1</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F124" s="10"/>
-      <c r="G124" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I124" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D125" s="9">
-        <v>3</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="10"/>
-      <c r="G125" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I125" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D126" s="9">
-        <v>1</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F126" s="10"/>
-      <c r="G126" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I126" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D127" s="9">
-        <v>2</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I127" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D128" s="9">
-        <v>2</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D129" s="9">
-        <v>3</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="10"/>
-      <c r="G129" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I129" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D130" s="9">
-        <v>3</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="F130" s="10"/>
-      <c r="G130" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I130" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A131" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D131" s="9">
-        <v>1</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F131" s="10"/>
-      <c r="G131" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D132" s="9">
-        <v>2</v>
-      </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I132" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D133" s="9">
-        <v>1</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F133" s="10"/>
-      <c r="G133" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D134" s="9">
-        <v>2</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I134" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D135" s="9">
-        <v>1</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F135" s="10"/>
-      <c r="G135" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I135" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A136" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D136" s="9">
-        <v>32</v>
-      </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I136" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A137" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D137" s="9">
-        <v>32</v>
-      </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I137" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A138" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D138" s="9">
-        <v>32</v>
-      </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I138" s="12" t="s">
-        <v>324</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H138" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H138" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H112" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5237,72 +4320,53 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="28"/>
+    <col min="1" max="1" width="8.625" style="27"/>
     <col min="2" max="2" width="53.375" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="28"/>
-    <col min="4" max="4" width="26" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="27"/>
+    <col min="4" max="4" width="26" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>328</v>
+      <c r="A1" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="A2" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="25">
         <v>44522</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="114" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="29">
-        <v>44582</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="B4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="29">
-        <v>44620</v>
-      </c>
+      <c r="D4" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
